--- a/data/trans_orig/P75-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B18BF1-584B-41C8-A5BE-3C2FE660488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C6EE45-0DA5-44AD-97C4-1A0A771327B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93410B3E-097D-484E-94A0-88DF21C58FB3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E091252-8AE0-4FC7-893D-338905A1E8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>24,84%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>75,16%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>33,44%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -195,55 +195,55 @@
     <t>34,15%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -252,55 +252,55 @@
     <t>22,34%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,103 +309,109 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>26,87%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>27,79%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>73,13%</t>
   </si>
   <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>72,21%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -417,325 +423,325 @@
     <t>21,99%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD20085-E672-4BF1-AE32-A38D789978E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3830CD5-F072-43C8-9599-B605FDE54F5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2079,10 +2085,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2103,13 @@
         <v>2498408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2393</v>
@@ -2112,28 +2118,28 @@
         <v>2569583</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4751</v>
       </c>
       <c r="N20" s="7">
-        <v>5067991</v>
+        <v>5067992</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2181,7 @@
         <v>6432</v>
       </c>
       <c r="N21" s="7">
-        <v>6906371</v>
+        <v>6906372</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2189,7 +2195,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FDCE05-B2D5-4B8E-883C-09B577568B67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC41E7-F8D1-4DE1-BEA2-2975DA896CA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2227,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2334,13 +2340,13 @@
         <v>25634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -2349,13 +2355,13 @@
         <v>22098</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2364,13 +2370,13 @@
         <v>47732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2391,13 @@
         <v>90912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -2400,13 +2406,13 @@
         <v>91262</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -2415,13 +2421,13 @@
         <v>182174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2495,13 @@
         <v>85384</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -2504,13 +2510,13 @@
         <v>100621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2519,13 +2525,13 @@
         <v>186006</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2546,13 @@
         <v>472870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -2555,13 +2561,13 @@
         <v>458858</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -2570,13 +2576,13 @@
         <v>931727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2650,13 @@
         <v>210416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -2659,13 +2665,13 @@
         <v>220621</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>403</v>
@@ -2674,13 +2680,13 @@
         <v>431037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2701,13 @@
         <v>812015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>770</v>
@@ -2710,13 +2716,13 @@
         <v>822292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -2725,13 +2731,13 @@
         <v>1634307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2805,13 @@
         <v>55096</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2814,13 +2820,13 @@
         <v>65247</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2829,13 +2835,13 @@
         <v>120343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2856,13 @@
         <v>704456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>674</v>
@@ -2865,13 +2871,13 @@
         <v>719764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1318</v>
@@ -2880,13 +2886,13 @@
         <v>1424220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2960,13 @@
         <v>103435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -2969,13 +2975,13 @@
         <v>118795</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -2984,13 +2990,13 @@
         <v>222230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3011,13 @@
         <v>834132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>848</v>
@@ -3020,13 +3026,13 @@
         <v>924984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1676</v>
@@ -3035,13 +3041,13 @@
         <v>1759116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3115,13 @@
         <v>479965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>504</v>
@@ -3124,13 +3130,13 @@
         <v>527383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>963</v>
@@ -3139,13 +3145,13 @@
         <v>1007348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>2914385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>2834</v>
@@ -3175,13 +3181,13 @@
         <v>3017159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>5606</v>
@@ -3190,13 +3196,13 @@
         <v>5931544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3258,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C6EE45-0DA5-44AD-97C4-1A0A771327B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C24E49-556E-4078-92E6-389BFF923965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E091252-8AE0-4FC7-893D-338905A1E8A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{115F0421-4D85-4F92-9A65-D4FDD5729401}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -75,28 +75,28 @@
     <t>24,84%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,202 +105,202 @@
     <t>75,16%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>65,03%</t>
   </si>
   <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>63,62%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,64 +309,58 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>87,63%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>26,87%</t>
@@ -381,19 +375,19 @@
     <t>26,62%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>73,13%</t>
@@ -408,157 +402,157 @@
     <t>73,38%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>80,51%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>78,72%</t>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
     <t>20,58%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>23,14%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
   </si>
   <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>76,86%</t>
+    <t>76,69%</t>
   </si>
   <si>
     <t>81,95%</t>
@@ -567,37 +561,37 @@
     <t>78,85%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>79,13%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>7,79%</t>
@@ -606,31 +600,31 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>9,18%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>90,82%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>93,55%</t>
@@ -642,31 +636,31 @@
     <t>9,04%</t>
   </si>
   <si>
-    <t>13,12%</t>
+    <t>13,18%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>86,88%</t>
+    <t>86,82%</t>
   </si>
   <si>
     <t>90,96%</t>
@@ -675,73 +669,73 @@
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3830CD5-F072-43C8-9599-B605FDE54F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3464D123-2D20-491F-BCD1-63E760B2F410}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1912,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>300</v>
@@ -1927,13 +1921,13 @@
         <v>313466</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1942,13 @@
         <v>784051</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -1963,13 +1957,13 @@
         <v>894163</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1605</v>
@@ -1978,13 +1972,13 @@
         <v>1678213</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2046,13 @@
         <v>894080</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>864</v>
@@ -2067,13 +2061,13 @@
         <v>944300</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1681</v>
@@ -2082,13 +2076,13 @@
         <v>1838380</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2097,13 @@
         <v>2498408</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2393</v>
@@ -2118,28 +2112,28 @@
         <v>2569583</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4751</v>
       </c>
       <c r="N20" s="7">
-        <v>5067992</v>
+        <v>5067991</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2175,7 @@
         <v>6432</v>
       </c>
       <c r="N21" s="7">
-        <v>6906372</v>
+        <v>6906371</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2195,7 +2189,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC41E7-F8D1-4DE1-BEA2-2975DA896CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667B7233-BDA4-4BEB-9596-9BE92754544B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2340,13 +2334,13 @@
         <v>25634</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -2355,13 +2349,13 @@
         <v>22098</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2370,13 +2364,13 @@
         <v>47732</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2385,13 @@
         <v>90912</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>91</v>
@@ -2406,13 +2400,13 @@
         <v>91262</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -2421,13 +2415,13 @@
         <v>182174</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,13 +2489,13 @@
         <v>85384</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -2510,13 +2504,13 @@
         <v>100621</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2525,13 +2519,13 @@
         <v>186006</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2540,13 @@
         <v>472870</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -2561,13 +2555,13 @@
         <v>458858</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -2576,13 +2570,13 @@
         <v>931727</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2644,13 @@
         <v>210416</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -2665,13 +2659,13 @@
         <v>220621</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>403</v>
@@ -2680,13 +2674,13 @@
         <v>431037</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2695,13 @@
         <v>812015</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>770</v>
@@ -2716,13 +2710,13 @@
         <v>822292</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -2731,13 +2725,13 @@
         <v>1634307</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2799,13 @@
         <v>55096</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2820,13 +2814,13 @@
         <v>65247</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2835,13 +2829,13 @@
         <v>120343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2850,13 @@
         <v>704456</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>674</v>
@@ -2871,13 +2865,13 @@
         <v>719764</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1318</v>
@@ -2886,13 +2880,13 @@
         <v>1424220</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2954,13 @@
         <v>103435</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -2975,13 +2969,13 @@
         <v>118795</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -2990,13 +2984,13 @@
         <v>222230</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3005,13 @@
         <v>834132</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>848</v>
@@ -3026,13 +3020,13 @@
         <v>924984</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1676</v>
@@ -3041,13 +3035,13 @@
         <v>1759116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3109,13 @@
         <v>479965</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>504</v>
@@ -3130,13 +3124,13 @@
         <v>527383</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>963</v>
@@ -3145,13 +3139,13 @@
         <v>1007348</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>2914385</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>2834</v>
@@ -3181,13 +3175,13 @@
         <v>3017159</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>5606</v>
@@ -3196,13 +3190,13 @@
         <v>5931544</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3252,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
